--- a/medicine/Psychotrope/Sobbra/Sobbra.xlsx
+++ b/medicine/Psychotrope/Sobbra/Sobbra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Sobbra, acronyme de Société burkinabè de brasseries, est une bière du Burkina Faso, brassée par la société des brasseries du Burkina (Brakina)[1], son coût est en moyenne de 600 francs CFA, soit à peu près 92 centimes d’euro.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sobbra, acronyme de Société burkinabè de brasseries, est une bière du Burkina Faso, brassée par la société des brasseries du Burkina (Brakina), son coût est en moyenne de 600 francs CFA, soit à peu près 92 centimes d’euro.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Sobbra, est une bière blonde avec 4,2 % d’alcool. Elle est conditionnée dans une bouteille en verre consignée de 65 cl. Elle est confectionnée avec du maïs burkinabè, pérennisant ainsi la filière agricole nationale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sobbra, est une bière blonde avec 4,2 % d’alcool. Elle est conditionnée dans une bouteille en verre consignée de 65 cl. Elle est confectionnée avec du maïs burkinabè, pérennisant ainsi la filière agricole nationale.
 </t>
         </is>
       </c>
